--- a/data/trans_dic/P27-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P27-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido algún tipo de medicamentos en las últimas dos semanas</t>
+          <t>Población que ha consumido algún tipo de medicamentos en las últimas dos semanas (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>54,54%</t>
+          <t>54,06%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>51,29%</t>
+          <t>39,94%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>55,65%</t>
+          <t>49,78%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>64,43%</t>
+          <t>69,25%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>60,11%</t>
+          <t>68,63%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>71,62%</t>
+          <t>64,06%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>59,83%</t>
+          <t>79,06%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>56,27%</t>
+          <t>52,57%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>64,74%</t>
+          <t>61,71%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>52,55%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>64,93%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>60,14%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>40,11; 68,68</t>
+          <t>23,97; 74,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>37,69; 63,2</t>
+          <t>18,6; 57,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>36,87; 67,86</t>
+          <t>20,73; 71,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>55,97; 73,65</t>
+          <t>49,72; 89,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>42,64; 70,05</t>
+          <t>55,72; 80,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>61,08; 82,85</t>
+          <t>50,15; 75,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>50,33; 67,12</t>
+          <t>65,71; 88,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>45,39; 63,82</t>
+          <t>32,66; 67,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>54,5; 73,61</t>
+          <t>43,3; 72,94</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>37,66; 64,31</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>43,94; 77,47</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>46,14; 75,39</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>45,01%</t>
+          <t>46,1%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>40,77%</t>
+          <t>43,59%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>44,77%</t>
+          <t>50,98%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>60,73%</t>
+          <t>40,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>63,06%</t>
+          <t>65,13%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>63,4%</t>
+          <t>66,9%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>53,17%</t>
+          <t>62,71%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>51,92%</t>
+          <t>51,18%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>53,69%</t>
+          <t>56,03%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>55,32%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>56,65%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>45,56%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>38,04; 51,94</t>
+          <t>36,55; 54,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>34,22; 48,0</t>
+          <t>34,34; 52,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>38,0; 52,99</t>
+          <t>42,19; 60,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>54,34; 66,24</t>
+          <t>31,24; 51,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>57,53; 69,15</t>
+          <t>57,46; 71,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>56,94; 69,43</t>
+          <t>60,22; 73,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>48,84; 57,63</t>
+          <t>55,64; 70,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>46,81; 56,26</t>
+          <t>44,1; 59,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>48,57; 57,97</t>
+          <t>48,85; 61,33</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>49,37; 60,92</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>50,95; 62,54</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>40,18; 52,51</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>49,97%</t>
+          <t>50,12%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>49,1%</t>
+          <t>51,1%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>57,8%</t>
+          <t>59,39%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>54,35%</t>
+          <t>51,51%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>59,9%</t>
+          <t>53,13%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>60,95%</t>
+          <t>56,72%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>52,33%</t>
+          <t>58,21%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>54,87%</t>
+          <t>52,58%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>59,45%</t>
+          <t>51,81%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>54,19%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>58,75%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>52,08%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>41,82; 57,17</t>
+          <t>40,35; 59,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>41,73; 57,1</t>
+          <t>41,8; 61,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>50,38; 65,7</t>
+          <t>50,66; 68,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>48,29; 60,71</t>
+          <t>42,34; 60,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>54,22; 66,01</t>
+          <t>45,39; 60,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>54,53; 66,98</t>
+          <t>49,15; 64,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>47,64; 57,62</t>
+          <t>50,47; 65,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>49,8; 59,44</t>
+          <t>44,34; 60,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>54,74; 63,99</t>
+          <t>46,22; 58,17</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>48,15; 60,0</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>53,38; 64,63</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>46,5; 58,66</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>48,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>45,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>50,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>59,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>61,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>64,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>54,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>53,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>57,5%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>42,86; 52,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>40,7; 50,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>45,25; 55,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>55,2; 63,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>57,04; 65,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>60,29; 68,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>50,83; 57,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>50,63; 56,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>53,61; 60,9</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>48,76%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>45,86%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>53,74%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>48,92%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>60,64%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>62,34%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>63,35%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>51,95%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>55,16%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>54,49%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>58,65%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>50,48%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>41,16; 55,02</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>39,51; 52,12</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>45,64; 60,63</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>41,74; 57,37</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>55,62; 65,51</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>57,15; 67,0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>58,13; 68,11</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>46,07; 57,7</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>50,92; 59,25</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>49,95; 58,57</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>54,03; 62,66</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>45,66; 56,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido algún tipo de medicamentos en las últimas dos semanas (tasa de respuesta: 99,9%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>69679</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>42116</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>56811</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>123010</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>97785</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>73995</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>96766</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>112485</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>167463</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>116111</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>153577</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>235495</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>30896; 95692</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>19612; 60775</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>23654; 81775</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>88312; 159247</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>79383; 114848</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>57920; 87582</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>80422; 108350</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>69885; 144145</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>117496; 197929</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>83214; 142094</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>103929; 183224</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>180687; 295215</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>192.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>196108</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>164018</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>203648</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>207595</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>302496</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>254802</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>234299</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>253184</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>498604</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>418820</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>437946</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>460779</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>155514; 232224</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>129194; 199053</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>168544; 241090</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>161419; 267717</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>266874; 332235</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>229361; 281560</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>207876; 262918</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>218169; 292285</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>434703; 545788</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>373800; 461227</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>393909; 483461</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>406360; 531076</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>166837</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>144300</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>163550</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>180919</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>227600</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>195473</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>190614</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>208340</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>394437</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>339774</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>354164</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>389259</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>134334; 196967</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>118020; 174246</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>139518; 188148</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>148722; 213870</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>194453; 261084</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>169408; 220778</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>165274; 214084</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>175663; 239301</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>351869; 442845</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>301894; 376218</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>321766; 389580</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>347598; 438434</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>246.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>251.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>407.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>404.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>428.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>358.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>432624</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>350434</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>424009</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>511525</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>627881</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>524271</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>521679</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>574009</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1060505</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>874704</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>945688</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1085533</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>365167; 488166</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>301873; 398258</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>360087; 478414</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>436452; 599898</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>575896; 678228</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>480633; 563539</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>478644; 560842</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>509046; 637504</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>978998; 1139136</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>801725; 940077</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>871127; 1010425</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>981907; 1208030</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
